--- a/04_Unity开发/23级软件4班1组-陈俊西组-JUNGLEMAN项目迭代计划表.xlsx
+++ b/04_Unity开发/23级软件4班1组-陈俊西组-JUNGLEMAN项目迭代计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA4D0A-3F4D-4D14-90F8-F0030C077D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1633687A-97E3-4D78-B4C1-FE9F141AC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9F477D82-B3DD-4E7B-B520-8A8FE7F599F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>软件2304班JUNGLEMAN项目组迭代开发计划表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,10 @@
   </si>
   <si>
     <t>2024.7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表人：陈俊西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +474,14 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,7 +491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -502,13 +514,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,6 +572,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,9 +905,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04678E3-6753-4680-B597-67E7ECBFD326}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -894,623 +961,638 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="3"/>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="3"/>
+      <c r="H18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
